--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/99/word_level_predictions_99.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7626,364 +7626,364 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/99/word_level_predictions_99.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7626,364 +7626,364 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>7</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>7</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>7</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>8</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>7</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>9</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>7</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>10</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>7</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>11</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>7</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>12</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>7</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>13</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
